--- a/programmers.xlsx
+++ b/programmers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Programmers</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -33,6 +33,10 @@
   </si>
   <si>
     <t>1. array를 i번째부터 j번째 까지 자름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>''</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -485,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -522,6 +526,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/programmers.xlsx
+++ b/programmers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Programmers</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -33,10 +33,6 @@
   </si>
   <si>
     <t>1. array를 i번째부터 j번째 까지 자름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>''</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +488,7 @@
   <dimension ref="A1:A56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -527,9 +523,7 @@
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A56" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/programmers.xlsx
+++ b/programmers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Programmers</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -33,6 +33,10 @@
   </si>
   <si>
     <t>1. array를 i번째부터 j번째 까지 자름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +492,7 @@
   <dimension ref="A1:A56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -523,7 +527,9 @@
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
+      <c r="A56" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
